--- a/pITD-pion/expdata/1001.xlsx
+++ b/pITD-pion/expdata/1001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AA8F34-F370-384D-850C-3CA93B3DA119}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15526BB-6A5F-7D41-9914-BFC5EE706D86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="460" windowWidth="30260" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1001" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>Re(rpITD)</t>
-  </si>
-  <si>
-    <t>pion mass [MeV]</t>
-  </si>
-  <si>
-    <t>lattice spacing (a) [fm]</t>
   </si>
   <si>
     <t>Nf</t>
@@ -134,6 +128,12 @@
   </si>
   <si>
     <t>stat_24</t>
+  </si>
+  <si>
+    <t>mpi [MeV]</t>
+  </si>
+  <si>
+    <t>a [fm]</t>
   </si>
 </sst>
 </file>
@@ -983,7 +983,7 @@
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,22 +994,22 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -1030,76 +1030,76 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -1110,7 +1110,7 @@
         <v>0.127</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -1222,7 +1222,7 @@
         <v>0.127</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -1334,7 +1334,7 @@
         <v>0.127</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1446,7 +1446,7 @@
         <v>0.127</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -1558,7 +1558,7 @@
         <v>0.127</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>32</v>
@@ -1670,7 +1670,7 @@
         <v>0.127</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -1782,7 +1782,7 @@
         <v>0.127</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1894,7 +1894,7 @@
         <v>0.127</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>32</v>
@@ -2006,7 +2006,7 @@
         <v>0.127</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>32</v>
@@ -2118,7 +2118,7 @@
         <v>0.127</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>32</v>
@@ -2230,7 +2230,7 @@
         <v>0.127</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>32</v>
@@ -2342,7 +2342,7 @@
         <v>0.127</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>32</v>
@@ -2454,7 +2454,7 @@
         <v>0.127</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>32</v>
@@ -2566,7 +2566,7 @@
         <v>0.127</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>32</v>
@@ -2678,7 +2678,7 @@
         <v>0.127</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>32</v>
@@ -2790,7 +2790,7 @@
         <v>0.127</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>32</v>
@@ -2902,7 +2902,7 @@
         <v>0.127</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>32</v>
@@ -3014,7 +3014,7 @@
         <v>0.127</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>32</v>
@@ -3126,7 +3126,7 @@
         <v>0.127</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>32</v>
@@ -3238,7 +3238,7 @@
         <v>0.127</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>32</v>
@@ -3350,7 +3350,7 @@
         <v>0.127</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>32</v>
@@ -3462,7 +3462,7 @@
         <v>0.127</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>32</v>
@@ -3574,7 +3574,7 @@
         <v>0.127</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>32</v>
@@ -3686,7 +3686,7 @@
         <v>0.127</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>32</v>

--- a/pITD-pion/expdata/1001.xlsx
+++ b/pITD-pion/expdata/1001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15526BB-6A5F-7D41-9914-BFC5EE706D86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46133DC6-FB62-7946-BEAA-D87720A84324}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="460" windowWidth="30260" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
-  <si>
-    <t>p [2pi/L]</t>
-  </si>
-  <si>
-    <t>z [a]</t>
-  </si>
   <si>
     <t>nu</t>
   </si>
@@ -130,10 +124,16 @@
     <t>stat_24</t>
   </si>
   <si>
-    <t>mpi [MeV]</t>
+    <t>p</t>
   </si>
   <si>
-    <t>a [fm]</t>
+    <t>ZoA</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>mpi</t>
   </si>
 </sst>
 </file>
@@ -994,112 +994,112 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -1110,7 +1110,7 @@
         <v>0.127</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -1139,7 +1139,7 @@
         <v>0.99820699999999996</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0.127</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -1251,7 +1251,7 @@
         <v>0.98967099999999997</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0.127</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1363,7 +1363,7 @@
         <v>0.98655300000000001</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>0.127</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -1475,7 +1475,7 @@
         <v>0.99232200000000004</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0.127</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>32</v>
@@ -1587,7 +1587,7 @@
         <v>0.96531400000000001</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0.127</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -1699,7 +1699,7 @@
         <v>0.94158900000000001</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0.127</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1811,7 +1811,7 @@
         <v>0.98172800000000005</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0.127</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>32</v>
@@ -1923,7 +1923,7 @@
         <v>0.92824799999999996</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <v>9.9999999999999995E-7</v>
@@ -2006,7 +2006,7 @@
         <v>0.127</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>32</v>
@@ -2035,7 +2035,7 @@
         <v>0.85016099999999994</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0.127</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>32</v>
@@ -2147,7 +2147,7 @@
         <v>0.96533500000000005</v>
       </c>
       <c r="L11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0.127</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>32</v>
@@ -2259,7 +2259,7 @@
         <v>0.87114599999999998</v>
       </c>
       <c r="L12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0.127</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>32</v>
@@ -2371,7 +2371,7 @@
         <v>0.75054699999999996</v>
       </c>
       <c r="L13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0.127</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>32</v>
@@ -2483,7 +2483,7 @@
         <v>0.94336399999999998</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0.127</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>32</v>
@@ -2595,7 +2595,7 @@
         <v>0.79796500000000004</v>
       </c>
       <c r="L15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0.127</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>32</v>
@@ -2707,7 +2707,7 @@
         <v>0.62732500000000002</v>
       </c>
       <c r="L16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16">
         <v>-9.9999999999999995E-7</v>
@@ -2790,7 +2790,7 @@
         <v>0.127</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>32</v>
@@ -2819,7 +2819,7 @@
         <v>0.91569199999999995</v>
       </c>
       <c r="L17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0.127</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>32</v>
@@ -2931,7 +2931,7 @@
         <v>0.70434699999999995</v>
       </c>
       <c r="L18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M18">
         <v>9.9999999999999995E-7</v>
@@ -3014,7 +3014,7 @@
         <v>0.127</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>32</v>
@@ -3043,7 +3043,7 @@
         <v>0.49177599999999999</v>
       </c>
       <c r="L19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <v>-9.9999999999999995E-7</v>
@@ -3126,7 +3126,7 @@
         <v>0.127</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>32</v>
@@ -3155,7 +3155,7 @@
         <v>0.88439000000000001</v>
       </c>
       <c r="L20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0.127</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>32</v>
@@ -3267,7 +3267,7 @@
         <v>0.61934</v>
       </c>
       <c r="L21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0.127</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>32</v>
@@ -3379,7 +3379,7 @@
         <v>0.32583299999999998</v>
       </c>
       <c r="L22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M22">
         <v>-9.9999999999999995E-7</v>
@@ -3462,7 +3462,7 @@
         <v>0.127</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>32</v>
@@ -3491,7 +3491,7 @@
         <v>0.84829200000000005</v>
       </c>
       <c r="L23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0.127</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>32</v>
@@ -3603,7 +3603,7 @@
         <v>0.50197199999999997</v>
       </c>
       <c r="L24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <v>9.9999999999999995E-7</v>
@@ -3686,7 +3686,7 @@
         <v>0.127</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>32</v>
@@ -3715,7 +3715,7 @@
         <v>6.8052000000000001E-2</v>
       </c>
       <c r="L25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25">
         <v>-1.9999999999999999E-6</v>

--- a/pITD-pion/expdata/1001.xlsx
+++ b/pITD-pion/expdata/1001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46133DC6-FB62-7946-BEAA-D87720A84324}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F50E65-C84F-8C41-9F04-C86F3A94D8C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="460" windowWidth="30260" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="3740" windowWidth="30260" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1001" sheetId="1" r:id="rId1"/>
@@ -623,8 +623,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -983,7 +984,7 @@
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,77 +1142,77 @@
       <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AD2">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AJ2">
-        <v>-1.9999999999999999E-6</v>
+      <c r="M2" s="1">
+        <v>1.3330160000000001E-8</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.4227410000000001E-7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-1.741175E-8</v>
+      </c>
+      <c r="P2" s="1">
+        <v>4.4292439999999998E-8</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2.6539259999999998E-7</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-5.3943220000000003E-9</v>
+      </c>
+      <c r="S2" s="1">
+        <v>6.1715430000000005E-8</v>
+      </c>
+      <c r="T2" s="1">
+        <v>8.7637019999999999E-7</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-3.0597199999999998E-7</v>
+      </c>
+      <c r="V2" s="1">
+        <v>8.7893909999999997E-8</v>
+      </c>
+      <c r="W2" s="1">
+        <v>3.8350509999999998E-7</v>
+      </c>
+      <c r="X2" s="1">
+        <v>-4.2361929999999998E-7</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1.177212E-7</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>4.5726919999999997E-7</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>-5.9607509999999999E-7</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1.492489E-7</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>7.364257E-7</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>-8.6037279999999996E-7</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1.7150150000000001E-7</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2.3740819999999999E-7</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>-1.3230699999999999E-6</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>2.083718E-7</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>5.4419210000000005E-7</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>-2.2695769999999998E-6</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -1253,77 +1254,77 @@
       <c r="L3" t="s">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="O3">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="P3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q3">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="R3">
-        <v>-3.0000000000000001E-6</v>
-      </c>
-      <c r="S3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="T3">
-        <v>2.6999999999999999E-5</v>
-      </c>
-      <c r="U3">
-        <v>-2.1999999999999999E-5</v>
-      </c>
-      <c r="V3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="W3">
-        <v>1.4E-5</v>
-      </c>
-      <c r="X3">
-        <v>-3.0000000000000001E-5</v>
-      </c>
-      <c r="Y3">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Z3">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AA3">
-        <v>-4.1E-5</v>
-      </c>
-      <c r="AB3">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AC3">
-        <v>2.9E-5</v>
-      </c>
-      <c r="AD3">
-        <v>-5.1999999999999997E-5</v>
-      </c>
-      <c r="AE3">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AF3">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AG3">
-        <v>-6.4999999999999994E-5</v>
-      </c>
-      <c r="AH3">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AI3">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="AJ3">
-        <v>-6.9999999999999994E-5</v>
+      <c r="M3" s="1">
+        <v>1.4227410000000001E-7</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.020065E-5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-7.1061369999999996E-7</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5.7410580000000001E-7</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.564688E-5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-3.4279720000000001E-6</v>
+      </c>
+      <c r="S3" s="1">
+        <v>9.2366909999999998E-7</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2.6870380000000001E-5</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-2.1916280000000001E-5</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1.1638509999999999E-6</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1.443193E-5</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-2.9708820000000001E-5</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1.5765019999999999E-6</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1.6362980000000001E-5</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>-4.0646219999999999E-5</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2.0445940000000001E-6</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>2.8706370000000001E-5</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>-5.2421140000000001E-5</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>2.4287760000000001E-6</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2.364799E-6</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>-6.5153439999999995E-5</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>2.6745969999999999E-6</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>1.313799E-5</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>-7.0162759999999996E-5</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -1365,77 +1366,77 @@
       <c r="L4" t="s">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="O4">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="R4">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1.2E-5</v>
-      </c>
-      <c r="U4">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="X4">
-        <v>8.8999999999999995E-5</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>2.9E-5</v>
-      </c>
-      <c r="AA4">
-        <v>1.3200000000000001E-4</v>
-      </c>
-      <c r="AB4">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="AC4">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="AD4">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="AE4">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="AF4">
-        <v>3.4E-5</v>
-      </c>
-      <c r="AG4">
-        <v>2.7099999999999997E-4</v>
-      </c>
-      <c r="AH4">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="AI4">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="AJ4">
-        <v>4.8299999999999998E-4</v>
+      <c r="M4" s="1">
+        <v>-1.741175E-8</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-7.1061369999999996E-7</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.8748390000000001E-5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-3.4355570000000002E-8</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4.6774570000000004E-6</v>
+      </c>
+      <c r="R4" s="1">
+        <v>7.9907429999999995E-5</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-4.6887759999999999E-8</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.1558329999999999E-5</v>
+      </c>
+      <c r="U4" s="1">
+        <v>5.914824E-5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1.508986E-8</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2.0105829999999999E-5</v>
+      </c>
+      <c r="X4" s="1">
+        <v>8.8781810000000005E-5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>-2.590653E-7</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2.8514240000000002E-5</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1.3176900000000001E-4</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>-7.1257060000000004E-7</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>3.9127539999999997E-5</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1.803424E-4</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>-8.347037E-7</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>3.4017670000000003E-5</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>2.7085549999999998E-4</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>-1.945267E-6</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>4.8968360000000001E-5</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>4.8317549999999998E-4</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -1477,77 +1478,77 @@
       <c r="L5" t="s">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="U5">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="X5">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="Y5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Z5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AA5">
-        <v>-3.0000000000000001E-6</v>
-      </c>
-      <c r="AB5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AC5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AD5">
-        <v>-3.9999999999999998E-6</v>
-      </c>
-      <c r="AE5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AF5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AG5">
-        <v>-5.0000000000000004E-6</v>
-      </c>
-      <c r="AH5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AI5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AJ5">
-        <v>-9.0000000000000002E-6</v>
+      <c r="M5" s="1">
+        <v>4.4292439999999998E-8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5.7410580000000001E-7</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-3.4355570000000002E-8</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.727335E-7</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.1296960000000001E-6</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-5.5803009999999997E-8</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2.559738E-7</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3.4764810000000002E-6</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-1.6245859999999999E-6</v>
+      </c>
+      <c r="V5" s="1">
+        <v>3.7438089999999998E-7</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1.6380879999999999E-6</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-2.2546189999999999E-6</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>5.025799E-7</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1.91146E-6</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>-2.9494020000000001E-6</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>6.4208849999999996E-7</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>3.132236E-6</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>-3.8455669999999998E-6</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>7.5382520000000003E-7</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>8.7913230000000004E-7</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>-5.4870320000000002E-6</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>9.1139070000000001E-7</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>2.3733050000000001E-6</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>-8.8521930000000006E-6</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
@@ -1589,77 +1590,77 @@
       <c r="L6" t="s">
         <v>3</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="O6">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="P6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q6">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="R6">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="S6">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="T6">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="U6">
-        <v>-3.3000000000000003E-5</v>
-      </c>
-      <c r="V6">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="W6">
-        <v>5.3000000000000001E-5</v>
-      </c>
-      <c r="X6">
-        <v>-4.8999999999999998E-5</v>
-      </c>
-      <c r="Y6">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Z6">
-        <v>6.3E-5</v>
-      </c>
-      <c r="AA6">
-        <v>-6.7000000000000002E-5</v>
-      </c>
-      <c r="AB6">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AC6">
-        <v>9.8999999999999994E-5</v>
-      </c>
-      <c r="AD6">
-        <v>-8.7999999999999998E-5</v>
-      </c>
-      <c r="AE6">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AF6">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="AG6">
-        <v>-1.12E-4</v>
-      </c>
-      <c r="AH6">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AI6">
-        <v>5.3999999999999998E-5</v>
-      </c>
-      <c r="AJ6">
-        <v>-1.13E-4</v>
+      <c r="M6" s="1">
+        <v>2.6539259999999998E-7</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.564688E-5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4.6774570000000004E-6</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.1296960000000001E-6</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3.6783770000000003E-5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.927029E-5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2.0435910000000002E-6</v>
+      </c>
+      <c r="T6" s="1">
+        <v>7.6369169999999998E-5</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-3.2720830000000002E-5</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2.8338919999999999E-6</v>
+      </c>
+      <c r="W6" s="1">
+        <v>5.2648500000000003E-5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-4.9169509999999998E-5</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>3.665828E-6</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>6.3057970000000003E-5</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-6.690542E-5</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>4.2690750000000003E-6</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>9.9324119999999995E-5</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>-8.8243309999999997E-5</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>4.7544529999999997E-6</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2.5403050000000001E-5</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>-1.124113E-4</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>4.0968299999999999E-6</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>5.4249010000000003E-5</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>-1.128525E-4</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -1701,77 +1702,77 @@
       <c r="L7" t="s">
         <v>3</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>-3.0000000000000001E-6</v>
-      </c>
-      <c r="O7">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="R7">
-        <v>3.7500000000000001E-4</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="U7">
-        <v>2.6800000000000001E-4</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>8.7000000000000001E-5</v>
-      </c>
-      <c r="X7">
-        <v>4.0400000000000001E-4</v>
-      </c>
-      <c r="Y7">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="Z7">
-        <v>1.25E-4</v>
-      </c>
-      <c r="AA7">
-        <v>6.0099999999999997E-4</v>
-      </c>
-      <c r="AB7">
-        <v>-5.0000000000000004E-6</v>
-      </c>
-      <c r="AC7">
-        <v>1.7200000000000001E-4</v>
-      </c>
-      <c r="AD7">
-        <v>8.2600000000000002E-4</v>
-      </c>
-      <c r="AE7">
-        <v>-6.0000000000000002E-6</v>
-      </c>
-      <c r="AF7">
-        <v>1.46E-4</v>
-      </c>
-      <c r="AG7">
-        <v>1.256E-3</v>
-      </c>
-      <c r="AH7">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="AI7">
-        <v>2.0900000000000001E-4</v>
-      </c>
-      <c r="AJ7">
-        <v>2.2780000000000001E-3</v>
+      <c r="M7" s="1">
+        <v>-5.3943220000000003E-9</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-3.4279720000000001E-6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>7.9907429999999995E-5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-5.5803009999999997E-8</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.927029E-5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3.7542249999999999E-4</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-3.8681029999999998E-7</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3.5590660000000002E-5</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2.6830469999999999E-4</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-4.3695299999999998E-7</v>
+      </c>
+      <c r="W7" s="1">
+        <v>8.6863969999999998E-5</v>
+      </c>
+      <c r="X7" s="1">
+        <v>4.0368309999999998E-4</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-2.10438E-6</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1.252852E-4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>6.0137039999999997E-4</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-4.6525559999999998E-6</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1.7189190000000001E-4</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>8.2565169999999997E-4</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>-6.2705609999999997E-6</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1.455385E-4</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1.255955E-3</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>-1.196132E-5</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>2.0894309999999999E-4</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>2.278225E-3</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -1813,77 +1814,77 @@
       <c r="L8" t="s">
         <v>3</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="T8">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="U8">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="V8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="W8">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="X8">
-        <v>-3.0000000000000001E-6</v>
-      </c>
-      <c r="Y8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Z8">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AA8">
-        <v>-3.0000000000000001E-6</v>
-      </c>
-      <c r="AB8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AC8">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="AD8">
-        <v>-3.9999999999999998E-6</v>
-      </c>
-      <c r="AE8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AF8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AG8">
-        <v>-6.0000000000000002E-6</v>
-      </c>
-      <c r="AH8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AI8">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AJ8">
-        <v>-1.0000000000000001E-5</v>
+      <c r="M8" s="1">
+        <v>6.1715430000000005E-8</v>
+      </c>
+      <c r="N8" s="1">
+        <v>9.2366909999999998E-7</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-4.6887759999999999E-8</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2.559738E-7</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2.0435910000000002E-6</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-3.8681029999999998E-7</v>
+      </c>
+      <c r="S8" s="1">
+        <v>7.0919630000000005E-7</v>
+      </c>
+      <c r="T8" s="1">
+        <v>7.1629030000000004E-6</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-1.8373510000000001E-6</v>
+      </c>
+      <c r="V8" s="1">
+        <v>8.2379500000000003E-7</v>
+      </c>
+      <c r="W8" s="1">
+        <v>3.7339770000000002E-6</v>
+      </c>
+      <c r="X8" s="1">
+        <v>-2.6461960000000001E-6</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1.159098E-6</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>4.2326400000000002E-6</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>-3.3658640000000001E-6</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1.500391E-6</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>6.2225229999999997E-6</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>-4.382479E-6</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>1.8360099999999999E-6</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>1.9010929999999999E-6</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>-6.3699130000000003E-6</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1.9157140000000001E-6</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>3.0077969999999999E-6</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>-1.0318200000000001E-5</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -1925,77 +1926,77 @@
       <c r="L9" t="s">
         <v>3</v>
       </c>
-      <c r="M9">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N9">
-        <v>2.6999999999999999E-5</v>
-      </c>
-      <c r="O9">
-        <v>1.2E-5</v>
-      </c>
-      <c r="P9">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Q9">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="R9">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="S9">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="T9">
-        <v>5.1800000000000001E-4</v>
-      </c>
-      <c r="U9">
-        <v>-6.7999999999999999E-5</v>
-      </c>
-      <c r="V9">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="W9">
-        <v>1.4899999999999999E-4</v>
-      </c>
-      <c r="X9">
-        <v>-1.16E-4</v>
-      </c>
-      <c r="Y9">
-        <v>1.4E-5</v>
-      </c>
-      <c r="Z9">
-        <v>1.75E-4</v>
-      </c>
-      <c r="AA9">
-        <v>-1.63E-4</v>
-      </c>
-      <c r="AB9">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AC9">
-        <v>2.7799999999999998E-4</v>
-      </c>
-      <c r="AD9">
-        <v>-2.24E-4</v>
-      </c>
-      <c r="AE9">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="AF9">
-        <v>7.3999999999999996E-5</v>
-      </c>
-      <c r="AG9">
-        <v>-3.1599999999999998E-4</v>
-      </c>
-      <c r="AH9">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="AI9">
-        <v>1.5200000000000001E-4</v>
-      </c>
-      <c r="AJ9">
-        <v>-4.4299999999999998E-4</v>
+      <c r="M9" s="1">
+        <v>8.7637019999999999E-7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2.6870380000000001E-5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.1558329999999999E-5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3.4764810000000002E-6</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>7.6369169999999998E-5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>3.5590660000000002E-5</v>
+      </c>
+      <c r="S9" s="1">
+        <v>7.1629030000000004E-6</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5.1840709999999995E-4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-6.7563950000000002E-5</v>
+      </c>
+      <c r="V9" s="1">
+        <v>9.9545279999999992E-6</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1.4871289999999999E-4</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-1.156122E-4</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1.356708E-5</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1.751751E-4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>-1.626217E-4</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1.6283039999999999E-5</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2.7807290000000001E-4</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>-2.2428580000000001E-4</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1.8710900000000001E-5</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>7.3844659999999998E-5</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>-3.161603E-4</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>2.1184900000000001E-5</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>1.5163859999999999E-4</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>-4.4291170000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -2037,77 +2038,77 @@
       <c r="L10" t="s">
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>-2.1999999999999999E-5</v>
-      </c>
-      <c r="O10">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="P10">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="Q10">
-        <v>-3.3000000000000003E-5</v>
-      </c>
-      <c r="R10">
-        <v>2.6800000000000001E-4</v>
-      </c>
-      <c r="S10">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="T10">
-        <v>-6.7999999999999999E-5</v>
-      </c>
-      <c r="U10">
-        <v>6.8800000000000003E-4</v>
-      </c>
-      <c r="V10">
-        <v>-3.9999999999999998E-6</v>
-      </c>
-      <c r="W10">
-        <v>2.8E-5</v>
-      </c>
-      <c r="X10">
-        <v>1.057E-3</v>
-      </c>
-      <c r="Y10">
-        <v>-6.9999999999999999E-6</v>
-      </c>
-      <c r="Z10">
-        <v>6.3E-5</v>
-      </c>
-      <c r="AA10">
-        <v>1.5100000000000001E-3</v>
-      </c>
-      <c r="AB10">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-      <c r="AC10">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="AD10">
-        <v>1.9550000000000001E-3</v>
-      </c>
-      <c r="AE10">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="AF10">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="AG10">
-        <v>2.6289999999999998E-3</v>
-      </c>
-      <c r="AH10">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="AI10">
-        <v>2.8600000000000001E-4</v>
-      </c>
-      <c r="AJ10">
-        <v>3.8010000000000001E-3</v>
+      <c r="M10" s="1">
+        <v>-3.0597199999999998E-7</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-2.1916280000000001E-5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5.914824E-5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-1.6245859999999999E-6</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-3.2720830000000002E-5</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2.6830469999999999E-4</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-1.8373510000000001E-6</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-6.7563950000000002E-5</v>
+      </c>
+      <c r="U10" s="1">
+        <v>6.8789030000000002E-4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-4.120837E-6</v>
+      </c>
+      <c r="W10" s="1">
+        <v>2.7568820000000001E-5</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1.0565850000000001E-3</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>-6.7104040000000003E-6</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>6.2973130000000004E-5</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1.509713E-3</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-9.9311030000000004E-6</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>7.623861E-5</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1.954992E-3</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>-1.1583290000000001E-5</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>2.396105E-4</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>2.6286479999999999E-3</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>-1.1955379999999999E-5</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>2.8593869999999998E-4</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>3.8012089999999998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -2149,77 +2150,77 @@
       <c r="L11" t="s">
         <v>3</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="T11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="U11">
-        <v>-3.9999999999999998E-6</v>
-      </c>
-      <c r="V11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="W11">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="X11">
-        <v>-6.0000000000000002E-6</v>
-      </c>
-      <c r="Y11">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Z11">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AA11">
-        <v>-7.9999999999999996E-6</v>
-      </c>
-      <c r="AB11">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AC11">
-        <v>1.2E-5</v>
-      </c>
-      <c r="AD11">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-      <c r="AE11">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AF11">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AG11">
-        <v>-1.4E-5</v>
-      </c>
-      <c r="AH11">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AI11">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AJ11">
-        <v>-2.4000000000000001E-5</v>
+      <c r="M11" s="1">
+        <v>8.7893909999999997E-8</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.1638509999999999E-6</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.508986E-8</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3.7438089999999998E-7</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2.8338919999999999E-6</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-4.3695299999999998E-7</v>
+      </c>
+      <c r="S11" s="1">
+        <v>8.2379500000000003E-7</v>
+      </c>
+      <c r="T11" s="1">
+        <v>9.9545279999999992E-6</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-4.120837E-6</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1.309236E-6</v>
+      </c>
+      <c r="W11" s="1">
+        <v>6.0654490000000003E-6</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-5.6939169999999996E-6</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1.9291639999999999E-6</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>7.3963489999999997E-6</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-7.5496779999999997E-6</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>2.5928099999999998E-6</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1.16049E-5</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>-9.9003110000000008E-6</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>3.277086E-6</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>4.1403960000000001E-6</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>-1.435983E-5</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>3.741905E-6</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>6.9578779999999997E-6</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>-2.4370560000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
@@ -2261,77 +2262,77 @@
       <c r="L12" t="s">
         <v>3</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1.4E-5</v>
-      </c>
-      <c r="O12">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="P12">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q12">
-        <v>5.3000000000000001E-5</v>
-      </c>
-      <c r="R12">
-        <v>8.7000000000000001E-5</v>
-      </c>
-      <c r="S12">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="T12">
-        <v>1.4899999999999999E-4</v>
-      </c>
-      <c r="U12">
-        <v>2.8E-5</v>
-      </c>
-      <c r="V12">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="W12">
-        <v>1.45E-4</v>
-      </c>
-      <c r="X12">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="Y12">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="Z12">
-        <v>1.94E-4</v>
-      </c>
-      <c r="AA12">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="AB12">
-        <v>1.1E-5</v>
-      </c>
-      <c r="AC12">
-        <v>2.9799999999999998E-4</v>
-      </c>
-      <c r="AD12">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="AE12">
-        <v>1.4E-5</v>
-      </c>
-      <c r="AF12">
-        <v>1.5100000000000001E-4</v>
-      </c>
-      <c r="AG12">
-        <v>9.3999999999999994E-5</v>
-      </c>
-      <c r="AH12">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="AI12">
-        <v>2.41E-4</v>
-      </c>
-      <c r="AJ12">
-        <v>2.6899999999999998E-4</v>
+      <c r="M12" s="1">
+        <v>3.8350509999999998E-7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.443193E-5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2.0105829999999999E-5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.6380879999999999E-6</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>5.2648500000000003E-5</v>
+      </c>
+      <c r="R12" s="1">
+        <v>8.6863969999999998E-5</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3.7339770000000002E-6</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1.4871289999999999E-4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>2.7568820000000001E-5</v>
+      </c>
+      <c r="V12" s="1">
+        <v>6.0654490000000003E-6</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1.447795E-4</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3.2561290000000002E-5</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>8.6029580000000006E-6</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1.9350119999999999E-4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>4.7406920000000003E-5</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1.0704040000000001E-5</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>2.9821209999999999E-4</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>5.4664440000000001E-5</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1.351797E-5</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1.5077680000000001E-4</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>9.4412600000000005E-5</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1.2514020000000001E-5</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>2.4066340000000001E-4</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>2.6916309999999998E-4</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
@@ -2373,77 +2374,77 @@
       <c r="L13" t="s">
         <v>3</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>-3.0000000000000001E-5</v>
-      </c>
-      <c r="O13">
-        <v>8.8999999999999995E-5</v>
-      </c>
-      <c r="P13">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="Q13">
-        <v>-4.8999999999999998E-5</v>
-      </c>
-      <c r="R13">
-        <v>4.0400000000000001E-4</v>
-      </c>
-      <c r="S13">
-        <v>-3.0000000000000001E-6</v>
-      </c>
-      <c r="T13">
-        <v>-1.16E-4</v>
-      </c>
-      <c r="U13">
-        <v>1.057E-3</v>
-      </c>
-      <c r="V13">
-        <v>-6.0000000000000002E-6</v>
-      </c>
-      <c r="W13">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="X13">
-        <v>1.7080000000000001E-3</v>
-      </c>
-      <c r="Y13">
-        <v>-9.0000000000000002E-6</v>
-      </c>
-      <c r="Z13">
-        <v>8.6000000000000003E-5</v>
-      </c>
-      <c r="AA13">
-        <v>2.5279999999999999E-3</v>
-      </c>
-      <c r="AB13">
-        <v>-1.2999999999999999E-5</v>
-      </c>
-      <c r="AC13">
-        <v>9.7E-5</v>
-      </c>
-      <c r="AD13">
-        <v>3.3549999999999999E-3</v>
-      </c>
-      <c r="AE13">
-        <v>-1.4E-5</v>
-      </c>
-      <c r="AF13">
-        <v>3.8999999999999999E-4</v>
-      </c>
-      <c r="AG13">
-        <v>4.5450000000000004E-3</v>
-      </c>
-      <c r="AH13">
-        <v>-9.0000000000000002E-6</v>
-      </c>
-      <c r="AI13">
-        <v>4.55E-4</v>
-      </c>
-      <c r="AJ13">
-        <v>6.4279999999999997E-3</v>
+      <c r="M13" s="1">
+        <v>-4.2361929999999998E-7</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-2.9708820000000001E-5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>8.8781810000000005E-5</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-2.2546189999999999E-6</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-4.9169509999999998E-5</v>
+      </c>
+      <c r="R13" s="1">
+        <v>4.0368309999999998E-4</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-2.6461960000000001E-6</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-1.156122E-4</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1.0565850000000001E-3</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-5.6939169999999996E-6</v>
+      </c>
+      <c r="W13" s="1">
+        <v>3.2561290000000002E-5</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1.7079479999999999E-3</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>-9.0914150000000001E-6</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>8.5632039999999999E-5</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>2.5277540000000001E-3</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>-1.294509E-5</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>9.6925040000000001E-5</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>3.3549629999999999E-3</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>-1.351652E-5</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>3.8969660000000002E-4</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>4.5446139999999998E-3</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>-8.5756830000000001E-6</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>4.5495220000000002E-4</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>6.4281110000000002E-3</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -2485,77 +2486,77 @@
       <c r="L14" t="s">
         <v>3</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q14">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="R14">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="S14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="T14">
-        <v>1.4E-5</v>
-      </c>
-      <c r="U14">
-        <v>-6.9999999999999999E-6</v>
-      </c>
-      <c r="V14">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="W14">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="X14">
-        <v>-9.0000000000000002E-6</v>
-      </c>
-      <c r="Y14">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Z14">
-        <v>1.1E-5</v>
-      </c>
-      <c r="AA14">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="AB14">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AC14">
-        <v>1.8E-5</v>
-      </c>
-      <c r="AD14">
-        <v>-1.5999999999999999E-5</v>
-      </c>
-      <c r="AE14">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="AF14">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AG14">
-        <v>-2.1999999999999999E-5</v>
-      </c>
-      <c r="AH14">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AI14">
-        <v>1.2E-5</v>
-      </c>
-      <c r="AJ14">
-        <v>-3.8000000000000002E-5</v>
+      <c r="M14" s="1">
+        <v>1.177212E-7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.5765019999999999E-6</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-2.590653E-7</v>
+      </c>
+      <c r="P14" s="1">
+        <v>5.025799E-7</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3.665828E-6</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-2.10438E-6</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1.159098E-6</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1.356708E-5</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-6.7104040000000003E-6</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1.9291639999999999E-6</v>
+      </c>
+      <c r="W14" s="1">
+        <v>8.6029580000000006E-6</v>
+      </c>
+      <c r="X14" s="1">
+        <v>-9.0914150000000001E-6</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>3.0437199999999999E-6</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1.109885E-5</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>-1.2060819999999999E-5</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>4.3526980000000002E-6</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1.8095710000000001E-5</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>-1.555573E-5</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>5.8016039999999998E-6</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>7.0467489999999997E-6</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>-2.2424820000000001E-5</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>7.0261000000000004E-6</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>1.192352E-5</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>-3.8309809999999998E-5</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
@@ -2597,77 +2598,77 @@
       <c r="L15" t="s">
         <v>3</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="O15">
-        <v>2.9E-5</v>
-      </c>
-      <c r="P15">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q15">
-        <v>6.3E-5</v>
-      </c>
-      <c r="R15">
-        <v>1.25E-4</v>
-      </c>
-      <c r="S15">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="T15">
-        <v>1.75E-4</v>
-      </c>
-      <c r="U15">
-        <v>6.3E-5</v>
-      </c>
-      <c r="V15">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="W15">
-        <v>1.94E-4</v>
-      </c>
-      <c r="X15">
-        <v>8.6000000000000003E-5</v>
-      </c>
-      <c r="Y15">
-        <v>1.1E-5</v>
-      </c>
-      <c r="Z15">
-        <v>2.7300000000000002E-4</v>
-      </c>
-      <c r="AA15">
-        <v>1.3100000000000001E-4</v>
-      </c>
-      <c r="AB15">
-        <v>1.5E-5</v>
-      </c>
-      <c r="AC15">
-        <v>4.3300000000000001E-4</v>
-      </c>
-      <c r="AD15">
-        <v>1.74E-4</v>
-      </c>
-      <c r="AE15">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AF15">
-        <v>2.4699999999999999E-4</v>
-      </c>
-      <c r="AG15">
-        <v>2.92E-4</v>
-      </c>
-      <c r="AH15">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AI15">
-        <v>3.9599999999999998E-4</v>
-      </c>
-      <c r="AJ15">
-        <v>6.6799999999999997E-4</v>
+      <c r="M15" s="1">
+        <v>4.5726919999999997E-7</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.6362980000000001E-5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2.8514240000000002E-5</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.91146E-6</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>6.3057970000000003E-5</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1.252852E-4</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4.2326400000000002E-6</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1.751751E-4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>6.2973130000000004E-5</v>
+      </c>
+      <c r="V15" s="1">
+        <v>7.3963489999999997E-6</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1.9350119999999999E-4</v>
+      </c>
+      <c r="X15" s="1">
+        <v>8.5632039999999999E-5</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1.109885E-5</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>2.730322E-4</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1.3059239999999999E-4</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1.4609059999999999E-5</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>4.3324759999999998E-4</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>1.739139E-4</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1.973239E-5</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>2.4714570000000001E-4</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>2.918164E-4</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>2.0167080000000001E-5</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>3.9614700000000001E-4</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>6.6834209999999997E-4</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -2709,77 +2710,77 @@
       <c r="L16" t="s">
         <v>3</v>
       </c>
-      <c r="M16">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="N16">
-        <v>-4.1E-5</v>
-      </c>
-      <c r="O16">
-        <v>1.3200000000000001E-4</v>
-      </c>
-      <c r="P16">
-        <v>-3.0000000000000001E-6</v>
-      </c>
-      <c r="Q16">
-        <v>-6.7000000000000002E-5</v>
-      </c>
-      <c r="R16">
-        <v>6.0099999999999997E-4</v>
-      </c>
-      <c r="S16">
-        <v>-3.0000000000000001E-6</v>
-      </c>
-      <c r="T16">
-        <v>-1.63E-4</v>
-      </c>
-      <c r="U16">
-        <v>1.5100000000000001E-3</v>
-      </c>
-      <c r="V16">
-        <v>-7.9999999999999996E-6</v>
-      </c>
-      <c r="W16">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="X16">
-        <v>2.5279999999999999E-3</v>
-      </c>
-      <c r="Y16">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="Z16">
-        <v>1.3100000000000001E-4</v>
-      </c>
-      <c r="AA16">
-        <v>3.8920000000000001E-3</v>
-      </c>
-      <c r="AB16">
-        <v>-1.5999999999999999E-5</v>
-      </c>
-      <c r="AC16">
-        <v>1.5300000000000001E-4</v>
-      </c>
-      <c r="AD16">
-        <v>5.3550000000000004E-3</v>
-      </c>
-      <c r="AE16">
-        <v>-1.5E-5</v>
-      </c>
-      <c r="AF16">
-        <v>6.1700000000000004E-4</v>
-      </c>
-      <c r="AG16">
-        <v>7.4409999999999997E-3</v>
-      </c>
-      <c r="AH16">
-        <v>-3.9999999999999998E-6</v>
-      </c>
-      <c r="AI16">
-        <v>7.3499999999999998E-4</v>
-      </c>
-      <c r="AJ16">
-        <v>1.0586E-2</v>
+      <c r="M16" s="1">
+        <v>-5.9607509999999999E-7</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-4.0646219999999999E-5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.3176900000000001E-4</v>
+      </c>
+      <c r="P16" s="1">
+        <v>-2.9494020000000001E-6</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-6.690542E-5</v>
+      </c>
+      <c r="R16" s="1">
+        <v>6.0137039999999997E-4</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-3.3658640000000001E-6</v>
+      </c>
+      <c r="T16" s="1">
+        <v>-1.626217E-4</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1.509713E-3</v>
+      </c>
+      <c r="V16" s="1">
+        <v>-7.5496779999999997E-6</v>
+      </c>
+      <c r="W16" s="1">
+        <v>4.7406920000000003E-5</v>
+      </c>
+      <c r="X16" s="1">
+        <v>2.5277540000000001E-3</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>-1.2060819999999999E-5</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1.3059239999999999E-4</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>3.8915429999999999E-3</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-1.646739E-5</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1.5263009999999999E-4</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>5.3549649999999997E-3</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>-1.461851E-5</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>6.1684119999999999E-4</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>7.4411950000000003E-3</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>-3.752588E-6</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>7.3468190000000003E-4</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>1.0585590000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
@@ -2821,77 +2822,77 @@
       <c r="L17" t="s">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="O17">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="P17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q17">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="R17">
-        <v>-5.0000000000000004E-6</v>
-      </c>
-      <c r="S17">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="T17">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="U17">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-      <c r="V17">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="W17">
-        <v>1.1E-5</v>
-      </c>
-      <c r="X17">
-        <v>-1.2999999999999999E-5</v>
-      </c>
-      <c r="Y17">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Z17">
-        <v>1.5E-5</v>
-      </c>
-      <c r="AA17">
-        <v>-1.5999999999999999E-5</v>
-      </c>
-      <c r="AB17">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AC17">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="AD17">
-        <v>-2.0000000000000002E-5</v>
-      </c>
-      <c r="AE17">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AF17">
-        <v>1.1E-5</v>
-      </c>
-      <c r="AG17">
-        <v>-2.9E-5</v>
-      </c>
-      <c r="AH17">
-        <v>1.4E-5</v>
-      </c>
-      <c r="AI17">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AJ17">
-        <v>-5.3999999999999998E-5</v>
+      <c r="M17" s="1">
+        <v>1.492489E-7</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.0445940000000001E-6</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-7.1257060000000004E-7</v>
+      </c>
+      <c r="P17" s="1">
+        <v>6.4208849999999996E-7</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>4.2690750000000003E-6</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-4.6525559999999998E-6</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1.500391E-6</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1.6283039999999999E-5</v>
+      </c>
+      <c r="U17" s="1">
+        <v>-9.9311030000000004E-6</v>
+      </c>
+      <c r="V17" s="1">
+        <v>2.5928099999999998E-6</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1.0704040000000001E-5</v>
+      </c>
+      <c r="X17" s="1">
+        <v>-1.294509E-5</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>4.3526980000000002E-6</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1.4609059999999999E-5</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>-1.646739E-5</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>6.904179E-6</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>2.5632299999999999E-5</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>-2.0115519999999999E-5</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1.024676E-5</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1.137023E-5</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>-2.886686E-5</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>1.381233E-5</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>1.95017E-5</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>-5.3863119999999997E-5</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
@@ -2933,77 +2934,77 @@
       <c r="L18" t="s">
         <v>3</v>
       </c>
-      <c r="M18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N18">
-        <v>2.9E-5</v>
-      </c>
-      <c r="O18">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="P18">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Q18">
-        <v>9.8999999999999994E-5</v>
-      </c>
-      <c r="R18">
-        <v>1.7200000000000001E-4</v>
-      </c>
-      <c r="S18">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="T18">
-        <v>2.7799999999999998E-4</v>
-      </c>
-      <c r="U18">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="V18">
-        <v>1.2E-5</v>
-      </c>
-      <c r="W18">
-        <v>2.9799999999999998E-4</v>
-      </c>
-      <c r="X18">
-        <v>9.7E-5</v>
-      </c>
-      <c r="Y18">
-        <v>1.8E-5</v>
-      </c>
-      <c r="Z18">
-        <v>4.3300000000000001E-4</v>
-      </c>
-      <c r="AA18">
-        <v>1.5300000000000001E-4</v>
-      </c>
-      <c r="AB18">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="AC18">
-        <v>7.3399999999999995E-4</v>
-      </c>
-      <c r="AD18">
-        <v>2.12E-4</v>
-      </c>
-      <c r="AE18">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="AF18">
-        <v>4.1199999999999999E-4</v>
-      </c>
-      <c r="AG18">
-        <v>4.0299999999999998E-4</v>
-      </c>
-      <c r="AH18">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="AI18">
-        <v>6.9200000000000002E-4</v>
-      </c>
-      <c r="AJ18">
-        <v>1.08E-3</v>
+      <c r="M18" s="1">
+        <v>7.364257E-7</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2.8706370000000001E-5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3.9127539999999997E-5</v>
+      </c>
+      <c r="P18" s="1">
+        <v>3.132236E-6</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>9.9324119999999995E-5</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.7189190000000001E-4</v>
+      </c>
+      <c r="S18" s="1">
+        <v>6.2225229999999997E-6</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2.7807290000000001E-4</v>
+      </c>
+      <c r="U18" s="1">
+        <v>7.623861E-5</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1.16049E-5</v>
+      </c>
+      <c r="W18" s="1">
+        <v>2.9821209999999999E-4</v>
+      </c>
+      <c r="X18" s="1">
+        <v>9.6925040000000001E-5</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1.8095710000000001E-5</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>4.3324759999999998E-4</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1.5263009999999999E-4</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>2.5632299999999999E-5</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>7.338752E-4</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>2.1152470000000001E-4</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>3.693571E-5</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>4.1235929999999999E-4</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>4.034733E-4</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>4.264342E-5</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>6.9229899999999995E-4</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>1.0797980000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
@@ -3045,77 +3046,77 @@
       <c r="L19" t="s">
         <v>3</v>
       </c>
-      <c r="M19">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="N19">
-        <v>-5.1999999999999997E-5</v>
-      </c>
-      <c r="O19">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="P19">
-        <v>-3.9999999999999998E-6</v>
-      </c>
-      <c r="Q19">
-        <v>-8.7999999999999998E-5</v>
-      </c>
-      <c r="R19">
-        <v>8.2600000000000002E-4</v>
-      </c>
-      <c r="S19">
-        <v>-3.9999999999999998E-6</v>
-      </c>
-      <c r="T19">
-        <v>-2.24E-4</v>
-      </c>
-      <c r="U19">
-        <v>1.9550000000000001E-3</v>
-      </c>
-      <c r="V19">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-      <c r="W19">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="X19">
-        <v>3.3549999999999999E-3</v>
-      </c>
-      <c r="Y19">
-        <v>-1.5999999999999999E-5</v>
-      </c>
-      <c r="Z19">
-        <v>1.74E-4</v>
-      </c>
-      <c r="AA19">
-        <v>5.3550000000000004E-3</v>
-      </c>
-      <c r="AB19">
-        <v>-2.0000000000000002E-5</v>
-      </c>
-      <c r="AC19">
-        <v>2.12E-4</v>
-      </c>
-      <c r="AD19">
-        <v>7.7510000000000001E-3</v>
-      </c>
-      <c r="AE19">
-        <v>-1.5E-5</v>
-      </c>
-      <c r="AF19">
-        <v>9.1100000000000003E-4</v>
-      </c>
-      <c r="AG19">
-        <v>1.1322E-2</v>
-      </c>
-      <c r="AH19">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="AI19">
-        <v>1.1410000000000001E-3</v>
-      </c>
-      <c r="AJ19">
-        <v>1.6712000000000001E-2</v>
+      <c r="M19" s="1">
+        <v>-8.6037279999999996E-7</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-5.2421140000000001E-5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.803424E-4</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-3.8455669999999998E-6</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-8.8243309999999997E-5</v>
+      </c>
+      <c r="R19" s="1">
+        <v>8.2565169999999997E-4</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-4.382479E-6</v>
+      </c>
+      <c r="T19" s="1">
+        <v>-2.2428580000000001E-4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1.954992E-3</v>
+      </c>
+      <c r="V19" s="1">
+        <v>-9.9003110000000008E-6</v>
+      </c>
+      <c r="W19" s="1">
+        <v>5.4664440000000001E-5</v>
+      </c>
+      <c r="X19" s="1">
+        <v>3.3549629999999999E-3</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>-1.555573E-5</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1.739139E-4</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>5.3549649999999997E-3</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>-2.0115519999999999E-5</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>2.1152470000000001E-4</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>7.7513080000000002E-3</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>-1.471875E-5</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>9.1107999999999998E-4</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>1.132179E-2</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>-2.3431259999999999E-6</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>1.140959E-3</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>1.6711899999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
@@ -3157,77 +3158,77 @@
       <c r="L20" t="s">
         <v>3</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="O20">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="P20">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q20">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="R20">
-        <v>-6.0000000000000002E-6</v>
-      </c>
-      <c r="S20">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="T20">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="U20">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="V20">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="W20">
-        <v>1.4E-5</v>
-      </c>
-      <c r="X20">
-        <v>-1.4E-5</v>
-      </c>
-      <c r="Y20">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="Z20">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AA20">
-        <v>-1.5E-5</v>
-      </c>
-      <c r="AB20">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC20">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="AD20">
-        <v>-1.5E-5</v>
-      </c>
-      <c r="AE20">
-        <v>1.8E-5</v>
-      </c>
-      <c r="AF20">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="AG20">
-        <v>-2.0999999999999999E-5</v>
-      </c>
-      <c r="AH20">
-        <v>2.6999999999999999E-5</v>
-      </c>
-      <c r="AI20">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="AJ20">
-        <v>-5.5999999999999999E-5</v>
+      <c r="M20" s="1">
+        <v>1.7150150000000001E-7</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2.4287760000000001E-6</v>
+      </c>
+      <c r="O20" s="1">
+        <v>-8.347037E-7</v>
+      </c>
+      <c r="P20" s="1">
+        <v>7.5382520000000003E-7</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>4.7544529999999997E-6</v>
+      </c>
+      <c r="R20" s="1">
+        <v>-6.2705609999999997E-6</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1.8360099999999999E-6</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1.8710900000000001E-5</v>
+      </c>
+      <c r="U20" s="1">
+        <v>-1.1583290000000001E-5</v>
+      </c>
+      <c r="V20" s="1">
+        <v>3.277086E-6</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1.351797E-5</v>
+      </c>
+      <c r="X20" s="1">
+        <v>-1.351652E-5</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>5.8016039999999998E-6</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1.973239E-5</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>-1.461851E-5</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>1.024676E-5</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>3.693571E-5</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>-1.471875E-5</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>1.7666909999999999E-5</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>2.2133999999999998E-5</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>-2.1316319999999999E-5</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>2.6901040000000002E-5</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>3.7357619999999998E-5</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>-5.550823E-5</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
@@ -3269,77 +3270,77 @@
       <c r="L21" t="s">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="O21">
-        <v>3.4E-5</v>
-      </c>
-      <c r="P21">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q21">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="R21">
-        <v>1.46E-4</v>
-      </c>
-      <c r="S21">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="T21">
-        <v>7.3999999999999996E-5</v>
-      </c>
-      <c r="U21">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="V21">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="W21">
-        <v>1.5100000000000001E-4</v>
-      </c>
-      <c r="X21">
-        <v>3.8999999999999999E-4</v>
-      </c>
-      <c r="Y21">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="Z21">
-        <v>2.4699999999999999E-4</v>
-      </c>
-      <c r="AA21">
-        <v>6.1700000000000004E-4</v>
-      </c>
-      <c r="AB21">
-        <v>1.1E-5</v>
-      </c>
-      <c r="AC21">
-        <v>4.1199999999999999E-4</v>
-      </c>
-      <c r="AD21">
-        <v>9.1100000000000003E-4</v>
-      </c>
-      <c r="AE21">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="AF21">
-        <v>5.5199999999999997E-4</v>
-      </c>
-      <c r="AG21">
-        <v>1.459E-3</v>
-      </c>
-      <c r="AH21">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="AI21">
-        <v>8.5599999999999999E-4</v>
-      </c>
-      <c r="AJ21">
-        <v>2.5179999999999998E-3</v>
+      <c r="M21" s="1">
+        <v>2.3740819999999999E-7</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2.364799E-6</v>
+      </c>
+      <c r="O21" s="1">
+        <v>3.4017670000000003E-5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>8.7913230000000004E-7</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2.5403050000000001E-5</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1.455385E-4</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1.9010929999999999E-6</v>
+      </c>
+      <c r="T21" s="1">
+        <v>7.3844659999999998E-5</v>
+      </c>
+      <c r="U21" s="1">
+        <v>2.396105E-4</v>
+      </c>
+      <c r="V21" s="1">
+        <v>4.1403960000000001E-6</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1.5077680000000001E-4</v>
+      </c>
+      <c r="X21" s="1">
+        <v>3.8969660000000002E-4</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>7.0467489999999997E-6</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>2.4714570000000001E-4</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>6.1684119999999999E-4</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>1.137023E-5</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>4.1235929999999999E-4</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>9.1107999999999998E-4</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>2.2133999999999998E-5</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>5.5233720000000004E-4</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>1.4592730000000001E-3</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>3.4600259999999999E-5</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>8.561574E-4</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>2.5181829999999998E-3</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
@@ -3381,77 +3382,77 @@
       <c r="L22" t="s">
         <v>3</v>
       </c>
-      <c r="M22">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="N22">
-        <v>-6.4999999999999994E-5</v>
-      </c>
-      <c r="O22">
-        <v>2.7099999999999997E-4</v>
-      </c>
-      <c r="P22">
-        <v>-5.0000000000000004E-6</v>
-      </c>
-      <c r="Q22">
-        <v>-1.12E-4</v>
-      </c>
-      <c r="R22">
-        <v>1.256E-3</v>
-      </c>
-      <c r="S22">
-        <v>-6.0000000000000002E-6</v>
-      </c>
-      <c r="T22">
-        <v>-3.1599999999999998E-4</v>
-      </c>
-      <c r="U22">
-        <v>2.6289999999999998E-3</v>
-      </c>
-      <c r="V22">
-        <v>-1.4E-5</v>
-      </c>
-      <c r="W22">
-        <v>9.3999999999999994E-5</v>
-      </c>
-      <c r="X22">
-        <v>4.5450000000000004E-3</v>
-      </c>
-      <c r="Y22">
-        <v>-2.1999999999999999E-5</v>
-      </c>
-      <c r="Z22">
-        <v>2.92E-4</v>
-      </c>
-      <c r="AA22">
-        <v>7.4409999999999997E-3</v>
-      </c>
-      <c r="AB22">
-        <v>-2.9E-5</v>
-      </c>
-      <c r="AC22">
-        <v>4.0299999999999998E-4</v>
-      </c>
-      <c r="AD22">
-        <v>1.1322E-2</v>
-      </c>
-      <c r="AE22">
-        <v>-2.0999999999999999E-5</v>
-      </c>
-      <c r="AF22">
-        <v>1.459E-3</v>
-      </c>
-      <c r="AG22">
-        <v>1.7911E-2</v>
-      </c>
-      <c r="AH22">
-        <v>-1.5999999999999999E-5</v>
-      </c>
-      <c r="AI22">
-        <v>2.0049999999999998E-3</v>
-      </c>
-      <c r="AJ22">
-        <v>2.9055999999999998E-2</v>
+      <c r="M22" s="1">
+        <v>-1.3230699999999999E-6</v>
+      </c>
+      <c r="N22" s="1">
+        <v>-6.5153439999999995E-5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2.7085549999999998E-4</v>
+      </c>
+      <c r="P22" s="1">
+        <v>-5.4870320000000002E-6</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>-1.124113E-4</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1.255955E-3</v>
+      </c>
+      <c r="S22" s="1">
+        <v>-6.3699130000000003E-6</v>
+      </c>
+      <c r="T22" s="1">
+        <v>-3.161603E-4</v>
+      </c>
+      <c r="U22" s="1">
+        <v>2.6286479999999999E-3</v>
+      </c>
+      <c r="V22" s="1">
+        <v>-1.435983E-5</v>
+      </c>
+      <c r="W22" s="1">
+        <v>9.4412600000000005E-5</v>
+      </c>
+      <c r="X22" s="1">
+        <v>4.5446139999999998E-3</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>-2.2424820000000001E-5</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>2.918164E-4</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>7.4411950000000003E-3</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>-2.886686E-5</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>4.034733E-4</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>1.132179E-2</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>-2.1316319999999999E-5</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>1.4592730000000001E-3</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>1.7910519999999999E-2</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>-1.5637800000000001E-5</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>2.0049260000000002E-3</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>2.9056430000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
@@ -3493,77 +3494,77 @@
       <c r="L23" t="s">
         <v>3</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="O23">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="P23">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q23">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="R23">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="S23">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="T23">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="U23">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="V23">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="W23">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="X23">
-        <v>-9.0000000000000002E-6</v>
-      </c>
-      <c r="Y23">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="Z23">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AA23">
-        <v>-3.9999999999999998E-6</v>
-      </c>
-      <c r="AB23">
-        <v>1.4E-5</v>
-      </c>
-      <c r="AC23">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="AD23">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="AE23">
-        <v>2.6999999999999999E-5</v>
-      </c>
-      <c r="AF23">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="AG23">
-        <v>-1.5999999999999999E-5</v>
-      </c>
-      <c r="AH23">
-        <v>5.1999999999999997E-5</v>
-      </c>
-      <c r="AI23">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="AJ23">
-        <v>-8.7999999999999998E-5</v>
+      <c r="M23" s="1">
+        <v>2.083718E-7</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2.6745969999999999E-6</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-1.945267E-6</v>
+      </c>
+      <c r="P23" s="1">
+        <v>9.1139070000000001E-7</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>4.0968299999999999E-6</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-1.196132E-5</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1.9157140000000001E-6</v>
+      </c>
+      <c r="T23" s="1">
+        <v>2.1184900000000001E-5</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-1.1955379999999999E-5</v>
+      </c>
+      <c r="V23" s="1">
+        <v>3.741905E-6</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1.2514020000000001E-5</v>
+      </c>
+      <c r="X23" s="1">
+        <v>-8.5756830000000001E-6</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>7.0261000000000004E-6</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>2.0167080000000001E-5</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>-3.752588E-6</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>1.381233E-5</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>4.264342E-5</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>-2.3431259999999999E-6</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>2.6901040000000002E-5</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>3.4600259999999999E-5</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>-1.5637800000000001E-5</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>5.198522E-5</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>5.9650600000000001E-5</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>-8.7686699999999995E-5</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
@@ -3605,77 +3606,77 @@
       <c r="L24" t="s">
         <v>3</v>
       </c>
-      <c r="M24">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N24">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="O24">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="P24">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q24">
-        <v>5.3999999999999998E-5</v>
-      </c>
-      <c r="R24">
-        <v>2.0900000000000001E-4</v>
-      </c>
-      <c r="S24">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="T24">
-        <v>1.5200000000000001E-4</v>
-      </c>
-      <c r="U24">
-        <v>2.8600000000000001E-4</v>
-      </c>
-      <c r="V24">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="W24">
-        <v>2.41E-4</v>
-      </c>
-      <c r="X24">
-        <v>4.55E-4</v>
-      </c>
-      <c r="Y24">
-        <v>1.2E-5</v>
-      </c>
-      <c r="Z24">
-        <v>3.9599999999999998E-4</v>
-      </c>
-      <c r="AA24">
-        <v>7.3499999999999998E-4</v>
-      </c>
-      <c r="AB24">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AC24">
-        <v>6.9200000000000002E-4</v>
-      </c>
-      <c r="AD24">
-        <v>1.1410000000000001E-3</v>
-      </c>
-      <c r="AE24">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="AF24">
-        <v>8.5599999999999999E-4</v>
-      </c>
-      <c r="AG24">
-        <v>2.0049999999999998E-3</v>
-      </c>
-      <c r="AH24">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="AI24">
-        <v>1.4920000000000001E-3</v>
-      </c>
-      <c r="AJ24">
-        <v>3.9849999999999998E-3</v>
+      <c r="M24" s="1">
+        <v>5.4419210000000005E-7</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.313799E-5</v>
+      </c>
+      <c r="O24" s="1">
+        <v>4.8968360000000001E-5</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2.3733050000000001E-6</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>5.4249010000000003E-5</v>
+      </c>
+      <c r="R24" s="1">
+        <v>2.0894309999999999E-4</v>
+      </c>
+      <c r="S24" s="1">
+        <v>3.0077969999999999E-6</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1.5163859999999999E-4</v>
+      </c>
+      <c r="U24" s="1">
+        <v>2.8593869999999998E-4</v>
+      </c>
+      <c r="V24" s="1">
+        <v>6.9578779999999997E-6</v>
+      </c>
+      <c r="W24" s="1">
+        <v>2.4066340000000001E-4</v>
+      </c>
+      <c r="X24" s="1">
+        <v>4.5495220000000002E-4</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1.192352E-5</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>3.9614700000000001E-4</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>7.3468190000000003E-4</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>1.95017E-5</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>6.9229899999999995E-4</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>1.140959E-3</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>3.7357619999999998E-5</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>8.561574E-4</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>2.0049260000000002E-3</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>5.9650600000000001E-5</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>1.4920070000000001E-3</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>3.9849500000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
@@ -3717,77 +3718,77 @@
       <c r="L25" t="s">
         <v>3</v>
       </c>
-      <c r="M25">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="N25">
-        <v>-6.9999999999999994E-5</v>
-      </c>
-      <c r="O25">
-        <v>4.8299999999999998E-4</v>
-      </c>
-      <c r="P25">
-        <v>-9.0000000000000002E-6</v>
-      </c>
-      <c r="Q25">
-        <v>-1.13E-4</v>
-      </c>
-      <c r="R25">
-        <v>2.2780000000000001E-3</v>
-      </c>
-      <c r="S25">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-      <c r="T25">
-        <v>-4.4299999999999998E-4</v>
-      </c>
-      <c r="U25">
-        <v>3.8010000000000001E-3</v>
-      </c>
-      <c r="V25">
-        <v>-2.4000000000000001E-5</v>
-      </c>
-      <c r="W25">
-        <v>2.6899999999999998E-4</v>
-      </c>
-      <c r="X25">
-        <v>6.4279999999999997E-3</v>
-      </c>
-      <c r="Y25">
-        <v>-3.8000000000000002E-5</v>
-      </c>
-      <c r="Z25">
-        <v>6.6799999999999997E-4</v>
-      </c>
-      <c r="AA25">
-        <v>1.0586E-2</v>
-      </c>
-      <c r="AB25">
-        <v>-5.3999999999999998E-5</v>
-      </c>
-      <c r="AC25">
-        <v>1.08E-3</v>
-      </c>
-      <c r="AD25">
-        <v>1.6712000000000001E-2</v>
-      </c>
-      <c r="AE25">
-        <v>-5.5999999999999999E-5</v>
-      </c>
-      <c r="AF25">
-        <v>2.5179999999999998E-3</v>
-      </c>
-      <c r="AG25">
-        <v>2.9055999999999998E-2</v>
-      </c>
-      <c r="AH25">
-        <v>-8.7999999999999998E-5</v>
-      </c>
-      <c r="AI25">
-        <v>3.9849999999999998E-3</v>
-      </c>
-      <c r="AJ25">
-        <v>5.5605000000000002E-2</v>
+      <c r="M25" s="1">
+        <v>-2.2695769999999998E-6</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-7.0162759999999996E-5</v>
+      </c>
+      <c r="O25" s="1">
+        <v>4.8317549999999998E-4</v>
+      </c>
+      <c r="P25" s="1">
+        <v>-8.8521930000000006E-6</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-1.128525E-4</v>
+      </c>
+      <c r="R25" s="1">
+        <v>2.278225E-3</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-1.0318200000000001E-5</v>
+      </c>
+      <c r="T25" s="1">
+        <v>-4.4291170000000001E-4</v>
+      </c>
+      <c r="U25" s="1">
+        <v>3.8012089999999998E-3</v>
+      </c>
+      <c r="V25" s="1">
+        <v>-2.4370560000000001E-5</v>
+      </c>
+      <c r="W25" s="1">
+        <v>2.6916309999999998E-4</v>
+      </c>
+      <c r="X25" s="1">
+        <v>6.4281110000000002E-3</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>-3.8309809999999998E-5</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>6.6834209999999997E-4</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1.0585590000000001E-2</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>-5.3863119999999997E-5</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1.0797980000000001E-3</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>1.6711899999999998E-2</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>-5.550823E-5</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>2.5181829999999998E-3</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>2.9056430000000001E-2</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>-8.7686699999999995E-5</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>3.9849500000000001E-3</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>5.560524E-2</v>
       </c>
     </row>
   </sheetData>
